--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\specsheetsConsole\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.lee\Documents\GitHub\LabVIEW\Projects\1259_usbComm\specsheetsConsole\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2222,23 +2222,6 @@
 Turn on TV with console controls and play video source on TV
 Audio will play through the console speakers
 Adjust TV audio volume on console and the function will display on the TV and the console audio will reflect change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">将音频源连接到EQF1293并按播放
-将EQWxxxx公头直流电连接到公头直流电源适配器电缆，连接到EQF1293和控制台的其他端到端
-将RJ45以太网电缆的一端连接到EQF1293和控制台的另一端到后端
-将耳机连接到控制台并放在耳朵上
-按下控制台上的所有电视控制按钮，EQF1293上将显示响应
-音频将通过耳机播放
-在控制台上调整电视音频音量，该功能将显示在MYE电视上，耳机音频将反映变化 
-Connect audio source to EQF1293 and press play
-Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
-Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
-Connect headphones to console and place on ears
-Press all the TV control buttons on the console and a response will appear on the EQF1293
-Audio will play through the headphones
-Adjust TV audio volume on console and the function will display on the MYE TV and the headphone audio will reflect change
-</t>
   </si>
   <si>
     <t>将RJ45以太网电缆的一端连接到MYE CardioCare，另一端连接到控制台的背面
@@ -3029,20 +3012,6 @@
 On audio device, enter the bluetooth setup screen and disconnect and unpair ifit Audio.</t>
   </si>
   <si>
-    <t>将EQF1007的一端连接到音频源，另一端连接到MYE音频发送器。
-打开MYE音频发射器电源并播放音频源。
-将耳机连接到控制台。
-将MYE音频接收器连接至控制台背面的RJ45电缆。
-音频源将通过耳机播放。
-调节音量，耳机音频将反映变化。
-Connect one end of EQF1007 to audio source and the other end to MYE audio transmitter.
-Power up MYE audio transmitter and play audio source.
-Connect headphones to console.
-Connect MYE audio receiver to RJ45 cable on the back of console.
-Audio source will play through the headphones.
-Adjust volume and the headphone audio will reflect change.</t>
-  </si>
-  <si>
     <t>触摸屏幕右下角的用户个人资料图标，清除缓存。
 触摸设置。
 触摸维护。
@@ -3161,6 +3130,32 @@
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again until is on high.
 Press the Small Fan button until it turns the fan off.</t>
+  </si>
+  <si>
+    <t>将EQF1007的一端连接到音频源，另一端连接到MYE音频发送器。
+打开MYE音频发射器电源并播放音频源。
+将耳机连接到控制台。
+将MYE音频接收器连接至控制台背面的RJ45电缆。
+音频源将通过耳机播放。
+调节音量，耳机音频将反映变化。
+Connect audio source to EQF1293 and press play
+Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
+Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
+Connect headphones to console and place on ears
+Audio source will play through the headphones.
+Adjust volume and the headphone audio will reflect change.</t>
+  </si>
+  <si>
+    <t>将音频源连接到EQF1293并按播放
+将EQWxxxx公头直流电连接到公头直流电源适配器电缆，连接到EQF1293和控制台的其他端到端
+将RJ45以太网电缆的一端连接到EQF1293和控制台的另一端到后端
+将耳机连接到控制台并放在耳朵上
+按下控制台上的所有电视控制按钮，EQF1293上将显示响应
+音频将通过耳机播放
+在控制台上调整电视音频音量，该功能将显示在MYE电视上，耳机音频将反映变化 
+Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
+Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
+Press all the TV control buttons on the console and a response will appear on the EQF1293</t>
   </si>
 </sst>
 </file>
@@ -3532,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3543,82 +3538,82 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="Y1" s="6">
         <v>-24</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
@@ -3627,10 +3622,10 @@
         <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>337</v>
@@ -3639,25 +3634,25 @@
         <v>338</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>341</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>343</v>
@@ -3672,31 +3667,31 @@
         <v>347</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>348</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="X2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3704,10 +3699,10 @@
         <v>320</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -3716,25 +3711,25 @@
         <v>339</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>345</v>
@@ -3746,16 +3741,16 @@
         <v>4</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>349</v>
@@ -3778,7 +3773,7 @@
         <v>321</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -3790,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -3799,22 +3794,22 @@
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>350</v>
+        <v>467</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
@@ -3826,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,7 +3829,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3846,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -3855,25 +3850,25 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="R5" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>4</v>
@@ -3888,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,7 +3891,7 @@
         <v>323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -3917,25 +3912,25 @@
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="P6" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>4</v>
@@ -3956,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,7 +3959,7 @@
         <v>324</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -3976,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
@@ -3985,13 +3980,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
@@ -4032,7 +4027,7 @@
         <v>325</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4044,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>4</v>
@@ -4053,10 +4048,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>342</v>
@@ -4103,7 +4098,7 @@
         <v>325</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -4115,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>4</v>
@@ -4124,13 +4119,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
@@ -4177,7 +4172,7 @@
         <v>326</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -4189,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>4</v>
@@ -4198,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>4</v>
@@ -4242,10 +4237,10 @@
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -4257,7 +4252,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -4266,13 +4261,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>4</v>
@@ -4319,7 +4314,7 @@
         <v>327</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -4396,7 +4391,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -4417,10 +4412,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>4</v>
@@ -4467,7 +4462,7 @@
         <v>329</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -4544,7 +4539,7 @@
         <v>330</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -4621,7 +4616,7 @@
         <v>331</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -4633,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>4</v>
@@ -4698,7 +4693,7 @@
         <v>332</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -4710,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>4</v>
@@ -4775,7 +4770,7 @@
         <v>333</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -4787,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>4</v>
@@ -4852,7 +4847,7 @@
         <v>334</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4864,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
@@ -4929,7 +4924,7 @@
         <v>335</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -4941,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>4</v>
@@ -5006,7 +5001,7 @@
         <v>336</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -10087,13 +10082,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B1" s="3">
         <v>20191212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -10101,13 +10096,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="3">
         <v>20191205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>

--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="465">
   <si>
     <t>Rev0</t>
   </si>
@@ -2202,14 +2202,6 @@
 On the console, press the RESISTANCE - button. Verify the resistance level on the EQF1259 decreases.</t>
   </si>
   <si>
-    <t>将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
-播放音频并验证它是否从控制台扬声器播放。
-调整音量到最低和最高水平，并验证一个变化。
-Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
-Play audio and verify that it plays out of the console speakers.
-Adjust the volume to minimum and maximum level and verify a change.</t>
-  </si>
-  <si>
     <t>将视频源连接到电视
 将EQWxxxx线束连接到电视机，另一端连接到控制台的背面
 将EQWxxxx线束连接到电视机，另一端连接到控制台的背面
@@ -2230,14 +2222,6 @@
 The power and equipment indicators will light up on the MYE CardioCare module</t>
   </si>
   <si>
-    <t>在任何设备上打开BLE嗅探器
-在控制台上输入维护模式
-连接到嗅探器上出现的ICON设备
-Open BLE sniffer on any device
-Enter maintainance mode on the console
-Connect to the ICON device that appears on the sniffer</t>
-  </si>
-  <si>
     <t>Rev14</t>
   </si>
   <si>
@@ -2342,12 +2326,6 @@
   </si>
   <si>
     <t>CSAFE-21</t>
-  </si>
-  <si>
-    <t>WAHOO-22</t>
-  </si>
-  <si>
-    <t>DEMO_MODE-23</t>
   </si>
   <si>
     <t>FINISH-25</t>
@@ -2651,48 +2629,6 @@
 </t>
   </si>
   <si>
-    <t>如果控制台显示Hello或ifit.com/activate，请按住iFit（SYNC）按钮10秒钟。
-触摸屏幕左上方的用户个人资料图标。
-在下拉列表中，触摸蓝牙。
-按下控制台上的iFIT同步按钮，并在显示屏中间验证4个字符的十六进制代码（示例：“ DF69”）。
-在弹出的窗口中，确认与4个字符的十六进制代码匹配的控制台的信号强度为（&gt; 50％）为0.5m。
-连接到与4个字符的十六进制代码匹配的控制台。
-触摸屏幕左上方的用户个人资料图标。
-在下拉列表中，触摸蓝牙。
-与控制台断开连接。
-If console displays  Hello or ifit.com/activate, press and hold the iFit (SYNC) button for 10 seconds.
-Touch user profile icon at the upper left  of the screen.
-In drop down list, touch Bluetooth.
-Press the iFIT sync button on the console and verify a 4 character hex code in the middle of the display (Example: “DF69”). 
-In the pop up window, verify signal strength of the console that matches the 4 character hex code is at 0.5m is (&gt;50%).
-Connect to the console that matches the 4 character hex code.
-Touch user profile icon at the upper left  of the screen.
-In drop down list, touch Bluetooth.
-Disconnect from console.</t>
-  </si>
-  <si>
-    <t>在控制台上，进入维护模式。
-按停止3次进入软件版本。
-按两次加速箭头以获取Wahoo软件版本（1.15.1或更高版本），然后再次按以获取引导加载程序版本（3.1.4.5或更高版本）。
-按住暂停按钮5秒钟以获得Ant + ID。
-运行Ant + Sampler应用程序（请注意上一张幻灯片中的视频）。
-从设备类型列表屏幕中选择“健身设备控制显示”。
-找到后，从步骤2中选择ID。
-如果询问，选择不保存。
-您应该看到一个带有跑步机数据的新屏幕。
-在Ant_ Sampler应用程序上单击“后退”按钮以返回到设备类型列表屏幕。
-On the console, enter maintenance mode.
-Press stop 3 times to enter SW version.
-Press speed up arrow 2 times to get Wahoo software version (1.15.1 or newer) and press again for bootloader version (3.1.4.5 or newer).
-Hold down pause button for 5 seconds to get Ant+ ID.
-Run Ant+ Sampler app (Note video on previous slide).
-Select ‘Fitness Equipment Controls Display’ from equipment type list screen.
-Select the ID from step 2 when found.
-Select Don’t Save if asked.
-You should see a new screen with Treadmill data.
-Hit back button on Ant_ Sampler app to return to the equipment type list screen.</t>
-  </si>
-  <si>
     <t>按设置或齿轮图标按钮。
 验证并记录。
 根据您的覆盖，使用按钮UP ICON或DISPLAY或NEXT DISPLAY或PLAY ICON（DISPLAY）或DOT ICON（DISPLAY）或BLOCK ICON（DISPLAY）前进屏幕。
@@ -2751,14 +2687,6 @@
 Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero.
 When calibration is complete, exit back to settings screen.
 Note that each selection made on the tablet was denoted with an audible response from the speakers.</t>
-  </si>
-  <si>
-    <t>按下所有按钮并确认它们发出蜂鸣声。
-验证是否在前几步中选择的所有平板电脑都以扬声器的声音响应来表示。
-返回主画面。
-Press all buttons and verify that they beep.
-Verify that all tablet selections made in previous steps were denoted with an audible response from the speakers.
-Return to the main screen.</t>
   </si>
   <si>
     <t>选择校准倾斜。
@@ -2915,39 +2843,10 @@
 Verify that there are no LCD segments should be dim or out.</t>
   </si>
   <si>
-    <t>插入安全键的同时按STOP按钮。 （仅29818）
-按停止按钮3次。
-按SPEED UP按钮以验证型号。
-按下SPEED UP按钮以验证屏幕上显示的软件版本V83.77或更高。
-按SPEED UP按钮以验证并记录软件部件号。
-按SPEED UP按钮以验证并记录屏幕上显示的USB软件版本USB22。
-按SPEED UP按钮以验证并记录屏幕上显示的BLE软件版本？。
-按SPEED UP按钮以验证屏幕上显示的序列号。它应该与序列号标签上的序列号相同。
-按SPEED UP按钮以验证并记录屏幕上显示的OLYMPUS板软件版本OLY 73。
-Press the STOP button while inserting the SAFETY Key. (29818 only)
-Press STOP button 3 times.
-Press SPEED UP button to verify the model number.
-Press SPEED UP button to verify the software version V83.77 or greater showing on the screen.
-Press SPEED UP button to verify and record the software part number.
-Press SPEED UP button to verify and record the USB software version showing on the screen, USB22.
-Press SPEED UP button to verify and record the BLE software version showing on the screen, ?.
-Press SPEED UP button to verify the Serial Number showing on the screen. It should be the same as the serial number on the serial number sticker. 
-Press SPEED UP button to verify and record the OLYMPUS board software version showing on the screen, OLY 73.
-Advance screen with button STOP.</t>
-  </si>
-  <si>
     <t>前进屏幕以显示测试。
 按INCLINE˅按钮切换显示的开/关。
 Advance screen to display test.
 Press INCLINE ˅ button to toggle display on/off.</t>
-  </si>
-  <si>
-    <t>单击确定。
-在控制台上，按最大“快速抵抗”按钮，然后等待结果。
-在控制台上，按最小的“快速抵抗”按钮。
-Click OK.
-On the console, press maximum Quick resistance button and wait for results.
-On the console, press minimum Quick resistance button.</t>
   </si>
   <si>
     <t>插入USB测试仪（注意红色加电压〜0V）。
@@ -2968,48 +2867,6 @@
 Plug in a mobile device and it will indicate charging  (on the USB tester, red plus voltage ~3V when the flash drive is plugged in, blue negative voltage will stay ~0V).
 On the USB tester, Green output voltage is ~5Vdc.
 On the USB tester, Blue output current is ~2500mA.</t>
-  </si>
-  <si>
-    <t>握住脉冲条并确认显示了脉冲读数。
-Hold the pulse bars and verify a pulse reading is displayed.</t>
-  </si>
-  <si>
-    <t>将拇指按到拇指脉冲按钮上，并确认显示了脉冲读数。
-Press thumb onto the thumb pulse button and verify a pulse reading is displayed.</t>
-  </si>
-  <si>
-    <t>用拇指轻轻擦拭传感器，将显示心率。
-Gently rub the sensors with your thumbs will a heart rate displays.</t>
-  </si>
-  <si>
-    <t>在EQF1259上，按Display（显示）按钮转到BLE Pulse屏幕，然后按Start（开始）按钮。
-验证脉冲BLE脉冲已在控制台上读取。
-On the EQF1259, press Display button to go to BLE Pulse screen then press Start button.
-Verify pulse BLE pulse is read on console.</t>
-  </si>
-  <si>
-    <t>在EQF1259上，按Display（显示）按钮转到BLE Pulse屏幕，然后按Start（开始）按钮。
-点击控制台上的IFIT同步按钮。
-验证脉冲BLE脉冲已在控制台上读取。
-On the EQF1259, press Display button to go to BLE Pulse screen then press Start button.
-Tap the IFIT sync button on the console.
-Verify pulse BLE pulse is read on console.</t>
-  </si>
-  <si>
-    <t>连接耳机并将音量调到最小和最大，然后确认更改。
-Connect headphones and adjust volume to minimum and maximum and verify a change.</t>
-  </si>
-  <si>
-    <t>在音频设备上，进入蓝牙设置屏幕。
-按住BLE按钮3秒钟。
-在音频设备上，与ifit Audio配对并播放音频。
-在调音台上调节音量，音频电平将随调节而改变。
-在音频设备上，进入蓝牙设置屏幕，然后断开并取消配对。
-On audio device, enter the bluetooth setup screen.
-Press and hold BLE button for 3 sec.
-On audio device, Pair with ifit Audio and play audio.
-Adjust volume on console and the audio level will change with respect to adjustment.
-On audio device, enter the bluetooth setup screen and disconnect and unpair ifit Audio.</t>
   </si>
   <si>
     <t>触摸屏幕右下角的用户个人资料图标，清除缓存。
@@ -3030,44 +2887,6 @@
   </si>
   <si>
     <t>redesigned for LabView</t>
-  </si>
-  <si>
-    <t>在控制台上开始手动锻炼，并在指示时结束预热。
-单击确定。
-在控制台上，按最大“快速速度”按钮，然后等待结果。
-在控制台上，按最小的“快速速度”按钮。
-Start manual workout on the console and end warmup if indicated.
-Click OK.
-On the console, press maximum Quick speed button and wait for results.
-On the console, press minimum Quick speed button.</t>
-  </si>
-  <si>
-    <t>在控制台上开始手动锻炼，并在指示时结束预热。
-单击确定。
-验证控制台上的Cadence（RPM）和EQF1259是否匹配。
-Start manual workout on the console and end warmup if indicated.
-Click OK.
-Verify that the Cadence(RPM) on the console and the EQF1259 match.</t>
-  </si>
-  <si>
-    <t>在控制台上开始手动锻炼，并在指示时结束预热。
-单击确定。
-验证控制台上的Cadence（RPM）和EQF1259是否匹配。
-验证控制台上的速度和EQF1259是否匹配。
-Start manual workout on the console and end warmup if indicated.
-Click OK.
-Verify that the Cadence(RPM) on the console and the EQF1259 match.
-Verify that the Speed on the console and the EQF1259 match.</t>
-  </si>
-  <si>
-    <t>确认将坡度设置为最低设置。
-单击确定。
-在控制台上，按最大的“快速倾斜”按钮，然后等待结果。
-在控制台上，按0快速倾斜按钮。
-Verify incline is set to the lowest setting.
-Click OK.
-On the console, press maximum Quick incline button and wait for results.
-On the console, press 0 Quick incline button.</t>
   </si>
   <si>
     <t>必要时连接；脉冲条/手柄，扬声器，风扇，电视等
@@ -3114,14 +2933,6 @@
 Connect one end of the EQW1056 to EQF1259(RS-485). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE. (For Accelerometer Speed).</t>
   </si>
   <si>
-    <t>在控制台上，按“大风扇”按钮以打开风扇。风扇应在低位运行。
-再按一次“大风扇”按钮，直到它拉高。
-按下小风扇按钮，直到关闭风扇。
-On the console, press the Large Fan button to turn fan on. Fan should run on low.
-Press the Large Fan button again until is on high.
-Press the Small Fan button until it turns the fan off.</t>
-  </si>
-  <si>
     <t>将3针风扇连接到控制台。
 在控制台上，按“大风扇”按钮以打开风扇。风扇应在低位运行。
 再按一次“大风扇”按钮，直到它拉高。
@@ -3130,20 +2941,6 @@
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again until is on high.
 Press the Small Fan button until it turns the fan off.</t>
-  </si>
-  <si>
-    <t>将EQF1007的一端连接到音频源，另一端连接到MYE音频发送器。
-打开MYE音频发射器电源并播放音频源。
-将耳机连接到控制台。
-将MYE音频接收器连接至控制台背面的RJ45电缆。
-音频源将通过耳机播放。
-调节音量，耳机音频将反映变化。
-Connect audio source to EQF1293 and press play
-Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
-Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
-Connect headphones to console and place on ears
-Audio source will play through the headphones.
-Adjust volume and the headphone audio will reflect change.</t>
   </si>
   <si>
     <t>将音频源连接到EQF1293并按播放
@@ -3156,6 +2953,182 @@
 Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
 Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
 Press all the TV control buttons on the console and a response will appear on the EQF1293</t>
+  </si>
+  <si>
+    <t>插入安全键的同时按STOP按钮。 （仅29818）
+按停止按钮3次。
+按SPEED UP按钮以验证型号。
+按下SPEED UP按钮以验证屏幕上显示的软件版本V83.77或更高。
+按SPEED UP按钮以验证并记录软件部件号。
+按SPEED UP按钮以验证并记录屏幕上显示的USB软件版本USB22。
+按SPEED UP按钮以验证并记录屏幕上显示的BLE软件版本？。
+按SPEED UP按钮以验证屏幕上显示的序列号。它应该与序列号标签上的序列号相同。
+按SPEED UP按钮以验证并记录屏幕上显示的OLYMPUS板软件版本OLY 73。
+Press the STOP button while inserting the SAFETY Key. (29818 only)
+Press SPEED UP button to verify the model number.
+Press SPEED UP button to verify the software version V83.77 or greater showing on the screen.
+Press SPEED UP button to verify and record the software part number.
+Press SPEED UP button to verify and record the USB software version showing on the screen, USB22.
+Press SPEED UP button to verify and record the BLE software version showing on the screen, ?.
+Press SPEED UP button to verify the Serial Number showing on the screen. It should be the same as the serial number on the serial number sticker. 
+Press SPEED UP button to verify and record the OLYMPUS board software version showing on the screen, OLY 73.
+Advance screen with button STOP.</t>
+  </si>
+  <si>
+    <t>请注意，在平板电脑上进行的每个选择都带有扬声器发出的声音响应。
+返回主画面。
+Note that each selection made on the tablet was denoted with an audible response from the speakers.
+Return to the main screen.</t>
+  </si>
+  <si>
+    <t>按住暂停按钮5秒钟以获得Ant + ID。
+运行Ant + Sampler应用程序。
+从设备类型列表屏幕中选择“健身设备控制显示”。
+找到后，从步骤2中选择ID。
+如果询问，请选择不保存。
+您应该看到一个新的屏幕，其中包含跑步机数据。
+在控制台上按START。
+Hold down pause button for 5 seconds to get Ant+ ID.
+Run Ant+ Sampler app.
+Select ‘Fitness Equipment Controls Display’ from equipment type list screen.
+Select the ID from step 2 when found.
+Select Don’t Save if asked.
+You should see a new screen with Treadmill data.
+Press START on the console.</t>
+  </si>
+  <si>
+    <t>如果控制台显示Hello或ifit.com/activate，请按住iFit（SYNC）按钮10秒钟。
+在平板电脑上，触摸屏幕左上方的用户个人资料图标。
+在下拉列表中，触摸蓝牙。
+按下控制台上的iFIT同步按钮，并在显示屏中间验证4个字符的十六进制代码（示例：“ DF69”）。
+在弹出窗口中，验证与4个字符的十六进制代码匹配的控制台的信号强度为0.5m为（&gt; 50％）。
+连接到与4个字符的十六进制代码匹配的控制台。
+在控制台/装置上按开始。
+If console displays  Hello or ifit.com/activate, press and hold the iFit (SYNC) button for 10 seconds.
+On the tablet, touch user profile icon at the upper left  of the screen.
+In drop down list, touch Bluetooth.
+Press the iFIT sync button on the console and verify a 4 character hex code in the middle of the display (Example: “DF69”). 
+In the pop up window, verify signal strength of the console that matches the 4 character hex code is at 0.5m is (&gt;50%).
+Connect to the console that matches the 4 character hex code.
+Press Start on console/fixture.</t>
+  </si>
+  <si>
+    <t>在固定装置上，如果未运行，请按开始
+验证控制台上的Cadence（RPM）和EQF1259是否匹配。
+On the fixture, press START if not running
+Verify that the Cadence(RPM) on the console and the EQF1259 match.</t>
+  </si>
+  <si>
+    <t>在固定装置上，如果未运行，请按开始
+验证控制台上的Cadence（RPM）是否与屏幕匹配。
+验证控制台上的“速度”是否与屏幕匹配。
+On the fixture, press START if not running
+Verify that the Cadence(RPM) on the console matches the screen.
+Verify that the Speed on the console matches the screen.</t>
+  </si>
+  <si>
+    <t>在控制台上，如果未运行，请按START
+在控制台上，按下一个“快速速度”按钮，然后等待结果直到指示灯保持点亮。
+在控制台上，按递减速度按钮，直到显示出来。
+在控制台上，按增量速度按钮，直到显示出来。
+在控制台上，按最低的“快速速度”按钮。
+On the console, press START if not running
+On the console, press next Quick speed button and wait for results till indicator remains lit.
+On the console, press decrement speed button till indicated.
+On the console, press increment speed button till indicated.
+On the console, press the lowest Quick speed button.</t>
+  </si>
+  <si>
+    <t>在控制台上，按下一个“快速倾斜”按钮，然后等待结果直到指示灯保持点亮。
+在控制台上，按减量倾斜按钮，直到显示出来。
+在控制台上，按增量倾斜按钮，直到显示出来。
+在控制台上，按最低的“快速倾斜”按钮。
+On the console, press next Quick incline button and wait for results till indicator remains lit.
+On the console, press decrement incline button till indicated.
+On the console, press increment incline button till indicated.
+On the console, press the lowest Quick incline button.</t>
+  </si>
+  <si>
+    <t>在控制台上，按下下一个“快速电阻”按钮，然后等待结果直到指示灯保持点亮。
+在控制台上，按减阻按钮直到显示出来。
+在控制台上，按增加电阻按钮直到显示出来。
+在控制台上，按最低的“快速抵抗”按钮。
+On the console, press next Quick resistance button and wait for results till indicator remains lit.
+On the console, press decrement resistance button till indicated.
+On the console, press increment resistance button till indicated.
+On the console, press the lowest Quick resistance button.</t>
+  </si>
+  <si>
+    <t>在控制台上，按下拇指脉冲按钮上的拇指，并确认显示了脉冲读数。
+On the console, press thumb onto the thumb pulse button and verify a pulse reading is displayed.</t>
+  </si>
+  <si>
+    <t>在胸带上，用拇指轻轻擦拭传感器
+在控制台上，将显示心律
+On the chest strap, gently rub the sensors with your thumbs
+On the console, a heart rate will display</t>
+  </si>
+  <si>
+    <t>握住脉冲棒/手柄
+在控制台上，确认显示了脉冲读数。
+Hold the pulse bars/grips
+On the console, verify a pulse reading is displayed.</t>
+  </si>
+  <si>
+    <t>在灯具上，按开始按钮。
+在控制台上，点击“ IFIT同步”按钮。
+在控制台上，确认已显示生成的夹具脉冲。
+On the fixture, press Start button.
+On the console, tap the IFIT sync button.
+On the console, verify that the generated fixture pulse is displayed.</t>
+  </si>
+  <si>
+    <t>在灯具上，按开始按钮。
+在控制台上，确认已显示生成的夹具脉冲。
+On the fixture, press Start button.
+On the console, verify that the generated fixture pulse is displayed.</t>
+  </si>
+  <si>
+    <t>在控制台上，按大风扇按钮，风扇应在低速运行。
+在控制台上，再次按“大风扇”按钮，直到其高电平为止。
+在控制台上，按小风扇按钮，直到风扇关闭。
+On the console, press the Large fan button and the fan should run on low.
+On the console, press the Large fan button again until is on high.
+On the console, press the Small fan button until the fan turns off.</t>
+  </si>
+  <si>
+    <t>在音频设备上，进入蓝牙设置屏幕。
+在控制台上，按住BLE按钮3秒钟。
+在音频设备上，与ifit Audio配对并播放音频。
+在控制台上，调节音量，音频电平将根据调节而改变。
+在音频设备上，进入蓝牙设置屏幕，然后断开连接并取消配对。
+On the audio device, enter the bluetooth setup screen.
+On the console, press and hold BLE button for 3 sec.
+On audio device, Pair with ifit Audio and play audio.
+On the console, adjust the volume and the audio level will change with respect to adjustment.
+On audio device, enter the bluetooth setup screen and disconnect and unpair ifit Audio.</t>
+  </si>
+  <si>
+    <t>在控制台上，连接耳机并将音量调到最小和最大，然后确认更改。
+On the console, connect headphones and adjust volume to minimum and maximum and verify a change.</t>
+  </si>
+  <si>
+    <t>将EQW1007连接到音频源，并将EQW1007的另一端连接到控制台。
+在音频设备上，播放音频并验证其是否可以从两个控制台扬声器中播放。
+在控制台上，如果具有音量按钮，请调整到最小和最大级别并确认更改。
+Connect the EQW1007 to an audio source and connect the other end of the EQW1007 to the console.
+On the audio device, play audio and verify that it plays out of both console speakers.
+On the console, if it has volume buttons, adjust to minimum and maximum level and verify a change.</t>
+  </si>
+  <si>
+    <t>将音频源连接到EQF1293并按播放
+将EQWxxxx公直流至公直流电源适配器电缆连接至EQF1293，另一端连接至控制台背面
+将RJ45以太网电缆的一端连接到EQF1293，另一端连接到控制台背面
+在控制台上，连接耳机并将音量调到最小和最大，然后确认更改。
+Connect audio source to EQF1293 and press play
+Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
+Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
+On the console, connect headphones and adjust volume to minimum and maximum and verify a change.</t>
   </si>
 </sst>
 </file>
@@ -3527,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3538,82 +3511,82 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>381</v>
+      <c r="W1" s="6">
+        <v>-22</v>
+      </c>
+      <c r="X1" s="6">
+        <v>-23</v>
       </c>
       <c r="Y1" s="6">
         <v>-24</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
@@ -3622,10 +3595,10 @@
         <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>337</v>
@@ -3634,25 +3607,25 @@
         <v>338</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>341</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>343</v>
@@ -3667,31 +3640,28 @@
         <v>347</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,10 +3669,10 @@
         <v>320</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -3711,25 +3681,25 @@
         <v>339</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>345</v>
@@ -3741,19 +3711,19 @@
         <v>4</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>4</v>
@@ -3773,7 +3743,7 @@
         <v>321</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -3785,7 +3755,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -3794,22 +3764,22 @@
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
@@ -3821,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,7 +3799,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3841,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -3850,25 +3820,25 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>4</v>
@@ -3883,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,7 +3861,7 @@
         <v>323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -3912,25 +3882,25 @@
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>4</v>
@@ -3951,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,7 +3929,7 @@
         <v>324</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -3971,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
@@ -3980,13 +3950,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
@@ -4027,7 +3997,7 @@
         <v>325</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4039,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>4</v>
@@ -4048,10 +4018,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>342</v>
@@ -4098,7 +4068,7 @@
         <v>325</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -4110,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>4</v>
@@ -4119,13 +4089,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
@@ -4172,7 +4142,7 @@
         <v>326</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -4184,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>4</v>
@@ -4193,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>4</v>
@@ -4237,10 +4207,10 @@
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -4252,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -4261,13 +4231,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>4</v>
@@ -4314,7 +4284,7 @@
         <v>327</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -4391,7 +4361,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -4412,10 +4382,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>4</v>
@@ -4462,7 +4432,7 @@
         <v>329</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -4539,7 +4509,7 @@
         <v>330</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -4616,7 +4586,7 @@
         <v>331</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -4628,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>4</v>
@@ -4693,7 +4663,7 @@
         <v>332</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -4705,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>4</v>
@@ -4770,7 +4740,7 @@
         <v>333</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -4782,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>4</v>
@@ -4847,7 +4817,7 @@
         <v>334</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4859,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
@@ -4924,7 +4894,7 @@
         <v>335</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -4936,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>4</v>
@@ -5001,7 +4971,7 @@
         <v>336</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -5075,7 +5045,7 @@
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -10082,13 +10052,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B1" s="3">
         <v>20191212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -10096,13 +10066,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2" s="3">
         <v>20191205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>

--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="466">
   <si>
     <t>Rev0</t>
   </si>
@@ -2039,38 +2039,6 @@
 </t>
   </si>
   <si>
-    <t>EQF1259控制台夹具
-PC w /访问RNDftp
-MicroSD卡
-EQF1259 Console Fixture
-PC w/ Access to RNDftp
-MicroSD Card</t>
-  </si>
-  <si>
-    <t>EQW1141; 2针线束 
-EQW1141; 2-pin harness</t>
-  </si>
-  <si>
-    <t>EQW1011; 3针线束 
-EQW1011; 3-pin harness</t>
-  </si>
-  <si>
-    <t>EQW1059; 4针线束 
-EQW1059; 4-pin harness</t>
-  </si>
-  <si>
-    <t>EQW1067; 5针线束 
-EQW1067; 5-pin harness</t>
-  </si>
-  <si>
-    <t>EQW1001; 8针线束 
-EQW1001; 8-pin harness</t>
-  </si>
-  <si>
-    <t>EQW1139; 10针线束 
-EQW1139; 10-pin harness</t>
-  </si>
-  <si>
     <t>EQW1053; 14针线束 
 EQW1053; 14-pin harness</t>
   </si>
@@ -2263,9 +2231,6 @@
   </si>
   <si>
     <t>EQUIPMENT_NEEDED-0</t>
-  </si>
-  <si>
-    <t>FIXTURE_SETUP-1</t>
   </si>
   <si>
     <t>BLE_SETUP-2</t>
@@ -3129,6 +3094,45 @@
 Connect EQWxxxx male dc to male dc power adapter cable to EQF1293 and other end to back of console
 Connect one end of RJ45 ethernet cable to the EQF1293 and other end to back of console
 On the console, connect headphones and adjust volume to minimum and maximum and verify a change.</t>
+  </si>
+  <si>
+    <t>FIXTURE_SETUP-1</t>
+  </si>
+  <si>
+    <t>EQW1141； 2针线束
+EQW1141; 2-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1011； 3针线束
+EQW1011; 3-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1059； 4针线束
+EQW1059; 4-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1067； 5针线束
+EQW1067; 5-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1001； 8针线束
+EQW1001; 8-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1139； 10针线束
+EQW1139; 10-pin harness</t>
+  </si>
+  <si>
+    <t>EQW1025； 12针线束
+EQW1025; 12-pin harness</t>
+  </si>
+  <si>
+    <t>EQF1259控制台装置
+带有/访问ANDftp的PC
+MicroSD卡
+EQF1259 Console Fixture
+PC w/ Access to RNDftp
+MicroSD Card</t>
   </si>
 </sst>
 </file>
@@ -3500,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3511,70 +3515,70 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="W1" s="6">
         <v>-22</v>
@@ -3586,123 +3590,123 @@
         <v>-24</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>319</v>
+        <v>465</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="S2" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>320</v>
+        <v>458</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>422</v>
-      </c>
       <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>4</v>
@@ -3711,19 +3715,19 @@
         <v>4</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>4</v>
@@ -3740,10 +3744,10 @@
     </row>
     <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -3755,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -3764,22 +3768,22 @@
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
@@ -3791,15 +3795,15 @@
         <v>4</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3811,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -3820,25 +3824,25 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>4</v>
@@ -3853,15 +3857,15 @@
         <v>4</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -3882,25 +3886,25 @@
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>4</v>
@@ -3921,15 +3925,15 @@
         <v>4</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -3941,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
@@ -3950,13 +3954,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
@@ -3994,10 +3998,10 @@
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4009,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>4</v>
@@ -4018,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>4</v>
@@ -4065,10 +4069,10 @@
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>325</v>
+        <v>464</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -4080,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>4</v>
@@ -4089,13 +4093,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
@@ -4139,10 +4143,10 @@
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -4154,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>4</v>
@@ -4163,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>4</v>
@@ -4207,10 +4211,10 @@
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -4222,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -4231,13 +4235,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>4</v>
@@ -4281,10 +4285,10 @@
     </row>
     <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -4358,10 +4362,10 @@
     </row>
     <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -4382,10 +4386,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>4</v>
@@ -4429,10 +4433,10 @@
     </row>
     <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -4506,10 +4510,10 @@
     </row>
     <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -4583,10 +4587,10 @@
     </row>
     <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -4598,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>4</v>
@@ -4660,10 +4664,10 @@
     </row>
     <row r="17" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -4675,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>4</v>
@@ -4737,10 +4741,10 @@
     </row>
     <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -4752,7 +4756,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>4</v>
@@ -4814,10 +4818,10 @@
     </row>
     <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4829,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
@@ -4891,10 +4895,10 @@
     </row>
     <row r="20" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -4906,7 +4910,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>4</v>
@@ -4968,10 +4972,10 @@
     </row>
     <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -5045,7 +5049,7 @@
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -10052,13 +10056,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B1" s="3">
         <v>20191212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -10066,13 +10070,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B2" s="3">
         <v>20191205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>

--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -2412,13 +2412,6 @@
 Connect the 12-pin MTA to console.
 Connect the 4-pin MTA to the console.
 Click OK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">将EQW1001的一端连接到EQF1259（TRED1）。注意：确保您选择匹配控制台类型的正确端口。
-将接地线（绿色）连接到EQF 1259的E-GND。
-Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
-Connect the ground wire (Green) to E-GND on EQF 1259. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">将EQW1025的一端连接到EQF1259（TRED2）。注意：确保您选择匹配控制台类型的正确端口。
@@ -3133,6 +3126,12 @@
 EQF1259 Console Fixture
 PC w/ Access to RNDftp
 MicroSD Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将EQW1001的一端连接到EQF1259（TRED1）。注意：确保您选择匹配控制台类型的正确端口。
+将接地线（绿色）连接到EQF 1259的E-GND。
+Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect the ground wire (Green) to E-GND on EQF 1259. </t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3504,7 @@
   <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3518,7 +3517,7 @@
         <v>349</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>350</v>
@@ -3596,13 +3595,13 @@
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>330</v>
@@ -3617,19 +3616,19 @@
         <v>333</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>334</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>336</v>
@@ -3644,16 +3643,16 @@
         <v>340</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>345</v>
@@ -3665,18 +3664,18 @@
         <v>4</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -3691,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>338</v>
@@ -3715,16 +3714,16 @@
         <v>4</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>341</v>
@@ -3744,10 +3743,10 @@
     </row>
     <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -3768,22 +3767,22 @@
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
@@ -3800,10 +3799,10 @@
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3824,25 +3823,25 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="R5" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>4</v>
@@ -3862,10 +3861,10 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -3886,25 +3885,25 @@
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="R6" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>4</v>
@@ -3930,10 +3929,10 @@
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -3954,13 +3953,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
@@ -3998,10 +3997,10 @@
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4022,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>335</v>
@@ -4069,10 +4068,10 @@
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -4093,13 +4092,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
@@ -4146,7 +4145,7 @@
         <v>319</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -4167,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>4</v>
@@ -4211,10 +4210,10 @@
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -4226,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -4235,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>371</v>
@@ -4288,7 +4287,7 @@
         <v>320</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -4365,7 +4364,7 @@
         <v>321</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -4386,10 +4385,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>4</v>
@@ -4436,7 +4435,7 @@
         <v>322</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -4513,7 +4512,7 @@
         <v>323</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -4590,7 +4589,7 @@
         <v>324</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -4667,7 +4666,7 @@
         <v>325</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -4744,7 +4743,7 @@
         <v>326</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -4821,7 +4820,7 @@
         <v>327</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4833,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
@@ -4898,7 +4897,7 @@
         <v>328</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -4975,7 +4974,7 @@
         <v>329</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -5049,7 +5048,7 @@
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -10056,13 +10055,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="3">
         <v>20191212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>

--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -2827,20 +2827,6 @@
 On the USB tester, Blue output current is ~2500mA.</t>
   </si>
   <si>
-    <t>触摸屏幕右下角的用户个人资料图标，清除缓存。
-触摸设置。
-触摸维护。
-轻触[清除应用程式快取]，然后选取[是]，就会出现[欢迎使用]。
-等待10秒钟，然后在EQF1259上关闭控制台电源。
-断开控制台上的所有电线和电缆。
-Clear cache by touch the user profile icon on lower right of the screen.
-Touch Settings.
-Touch Maintainance.
-Touch Clear App Cache and select YES and WELCOME will appear on display.
-Wait 10 seconds and then on the EQF1259, turn off the Console power.
-Disconnect all wires and cables from the console.</t>
-  </si>
-  <si>
     <t>Rev15</t>
   </si>
   <si>
@@ -3132,6 +3118,21 @@
 将接地线（绿色）连接到EQF 1259的E-GND。
 Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Connect the ground wire (Green) to E-GND on EQF 1259. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在控制台上，触摸屏幕左上方的用户个人资料图标。
+触摸设置。
+触摸维护。
+轻触[清除应用程式资料]，然后选择[是]，就会出现[欢迎使用]。
+等待10秒钟，然后在EQF1259上关闭控制台电源。
+断开控制台上的所有电线和电缆。
+On the console, touch the user profile icon on the upper left of the screen.
+Touch Settings.
+Touch Maintenance.
+Touch Clear App Data and select YES and WELCOME will appear on display.
+Wait 10 seconds and then on the EQF1259, turn off the Console power.
+Disconnect all wires and cables from the console.
+</t>
   </si>
 </sst>
 </file>
@@ -3503,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3517,7 +3518,7 @@
         <v>349</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>350</v>
@@ -3595,10 +3596,10 @@
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>404</v>
@@ -3616,7 +3617,7 @@
         <v>333</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>417</v>
@@ -3628,7 +3629,7 @@
         <v>334</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>336</v>
@@ -3646,13 +3647,13 @@
         <v>427</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>345</v>
@@ -3664,12 +3665,12 @@
         <v>4</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>384</v>
@@ -3690,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>410</v>
@@ -3717,13 +3718,13 @@
         <v>428</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>341</v>
@@ -3743,7 +3744,7 @@
     </row>
     <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>385</v>
@@ -3773,16 +3774,16 @@
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>387</v>
@@ -3835,13 +3836,13 @@
         <v>420</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>4</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>388</v>
@@ -3891,19 +3892,19 @@
         <v>424</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="R6" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>4</v>
@@ -3929,7 +3930,7 @@
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>399</v>
@@ -3959,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
@@ -3997,7 +3998,7 @@
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>389</v>
@@ -4068,7 +4069,7 @@
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>390</v>
@@ -4225,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -4385,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>426</v>
@@ -4820,7 +4821,7 @@
         <v>327</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4832,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
@@ -10055,13 +10056,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="3">
         <v>20191212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
